--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H2">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N2">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q2">
-        <v>27.77342226553239</v>
+        <v>28.98017020083334</v>
       </c>
       <c r="R2">
-        <v>27.77342226553239</v>
+        <v>260.8215318075</v>
       </c>
       <c r="S2">
-        <v>0.001170191190026825</v>
+        <v>0.001148314519794486</v>
       </c>
       <c r="T2">
-        <v>0.001170191190026825</v>
+        <v>0.001148314519794486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H3">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N3">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q3">
-        <v>73.66227878892211</v>
+        <v>74.41866691858333</v>
       </c>
       <c r="R3">
-        <v>73.66227878892211</v>
+        <v>669.7680022672499</v>
       </c>
       <c r="S3">
-        <v>0.003103648835637799</v>
+        <v>0.00294877618641113</v>
       </c>
       <c r="T3">
-        <v>0.003103648835637799</v>
+        <v>0.002948776186411131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H4">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N4">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q4">
-        <v>353.1402193401805</v>
+        <v>354.7080729956389</v>
       </c>
       <c r="R4">
-        <v>353.1402193401805</v>
+        <v>3192.37265696075</v>
       </c>
       <c r="S4">
-        <v>0.01487902965522778</v>
+        <v>0.01405500477348825</v>
       </c>
       <c r="T4">
-        <v>0.01487902965522778</v>
+        <v>0.01405500477348825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H5">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N5">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q5">
-        <v>337.3246219437432</v>
+        <v>346.4972592492222</v>
       </c>
       <c r="R5">
-        <v>337.3246219437432</v>
+        <v>3118.475333243</v>
       </c>
       <c r="S5">
-        <v>0.01421266335145072</v>
+        <v>0.01372965828383694</v>
       </c>
       <c r="T5">
-        <v>0.01421266335145072</v>
+        <v>0.01372965828383695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H6">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N6">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q6">
-        <v>66.25193240774345</v>
+        <v>68.74153289291667</v>
       </c>
       <c r="R6">
-        <v>66.25193240774345</v>
+        <v>618.67379603625</v>
       </c>
       <c r="S6">
-        <v>0.002791425085629719</v>
+        <v>0.002723824594087325</v>
       </c>
       <c r="T6">
-        <v>0.002791425085629719</v>
+        <v>0.002723824594087325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H7">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N7">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q7">
-        <v>62.45504339990924</v>
+        <v>65.04479036906334</v>
       </c>
       <c r="R7">
-        <v>62.45504339990924</v>
+        <v>585.40311332157</v>
       </c>
       <c r="S7">
-        <v>0.002631448903220564</v>
+        <v>0.002577344325453138</v>
       </c>
       <c r="T7">
-        <v>0.002631448903220564</v>
+        <v>0.002577344325453139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H8">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N8">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q8">
-        <v>165.6468826460683</v>
+        <v>167.0296121699523</v>
       </c>
       <c r="R8">
-        <v>165.6468826460683</v>
+        <v>1503.266509529571</v>
       </c>
       <c r="S8">
-        <v>0.006979281158605924</v>
+        <v>0.006618405881028353</v>
       </c>
       <c r="T8">
-        <v>0.006979281158605924</v>
+        <v>0.006618405881028355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H9">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N9">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q9">
-        <v>794.1184746438613</v>
+        <v>796.1275620649151</v>
       </c>
       <c r="R9">
-        <v>794.1184746438613</v>
+        <v>7165.148058584236</v>
       </c>
       <c r="S9">
-        <v>0.03345898225941851</v>
+        <v>0.03154587543110562</v>
       </c>
       <c r="T9">
-        <v>0.03345898225941851</v>
+        <v>0.03154587543110563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H10">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N10">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q10">
-        <v>758.5534005112498</v>
+        <v>777.6987310679274</v>
       </c>
       <c r="R10">
-        <v>758.5534005112498</v>
+        <v>6999.288579611348</v>
       </c>
       <c r="S10">
-        <v>0.03196050158877094</v>
+        <v>0.03081564872539527</v>
       </c>
       <c r="T10">
-        <v>0.03196050158877094</v>
+        <v>0.03081564872539528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H11">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N11">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O11">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P11">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q11">
-        <v>148.9829835982639</v>
+        <v>154.2875202485617</v>
       </c>
       <c r="R11">
-        <v>148.9829835982639</v>
+        <v>1388.587682237055</v>
       </c>
       <c r="S11">
-        <v>0.006277172946272399</v>
+        <v>0.006113511359550762</v>
       </c>
       <c r="T11">
-        <v>0.006277172946272399</v>
+        <v>0.006113511359550763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H12">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N12">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O12">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P12">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q12">
-        <v>378.7522210056541</v>
+        <v>395.7465160642134</v>
       </c>
       <c r="R12">
-        <v>378.7522210056541</v>
+        <v>3561.71864457792</v>
       </c>
       <c r="S12">
-        <v>0.0159581526535154</v>
+        <v>0.01568111806815925</v>
       </c>
       <c r="T12">
-        <v>0.0159581526535154</v>
+        <v>0.01568111806815925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H13">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N13">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O13">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P13">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q13">
-        <v>1004.54857269305</v>
+        <v>1016.244140702997</v>
       </c>
       <c r="R13">
-        <v>1004.54857269305</v>
+        <v>9146.197266326975</v>
       </c>
       <c r="S13">
-        <v>0.04232513654531782</v>
+        <v>0.04026780706732239</v>
       </c>
       <c r="T13">
-        <v>0.04232513654531782</v>
+        <v>0.04026780706732239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H14">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N14">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O14">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P14">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q14">
-        <v>4815.85024426421</v>
+        <v>4843.81158340603</v>
       </c>
       <c r="R14">
-        <v>4815.85024426421</v>
+        <v>43594.30425065427</v>
       </c>
       <c r="S14">
-        <v>0.2029085747679099</v>
+        <v>0.1919319014977323</v>
       </c>
       <c r="T14">
-        <v>0.2029085747679099</v>
+        <v>0.1919319014977324</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H15">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N15">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O15">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P15">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q15">
-        <v>4600.169490802802</v>
+        <v>4731.686605820388</v>
       </c>
       <c r="R15">
-        <v>4600.169490802802</v>
+        <v>42585.17945238348</v>
       </c>
       <c r="S15">
-        <v>0.1938211920483482</v>
+        <v>0.1874890449202536</v>
       </c>
       <c r="T15">
-        <v>0.1938211920483482</v>
+        <v>0.1874890449202537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H16">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N16">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O16">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P16">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q16">
-        <v>903.4920617791678</v>
+        <v>938.7185086477868</v>
       </c>
       <c r="R16">
-        <v>903.4920617791678</v>
+        <v>8448.46657783008</v>
       </c>
       <c r="S16">
-        <v>0.03806727312338609</v>
+        <v>0.03719592003807771</v>
       </c>
       <c r="T16">
-        <v>0.03806727312338609</v>
+        <v>0.03719592003807771</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H17">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N17">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O17">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P17">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q17">
-        <v>294.5007835001155</v>
+        <v>342.2545376799533</v>
       </c>
       <c r="R17">
-        <v>294.5007835001155</v>
+        <v>3080.29083911958</v>
       </c>
       <c r="S17">
-        <v>0.01240834561232731</v>
+        <v>0.01356154406132984</v>
       </c>
       <c r="T17">
-        <v>0.01240834561232731</v>
+        <v>0.01356154406132984</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H18">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N18">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O18">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P18">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q18">
-        <v>781.092031451373</v>
+        <v>878.8811889119193</v>
       </c>
       <c r="R18">
-        <v>781.092031451373</v>
+        <v>7909.930700207274</v>
       </c>
       <c r="S18">
-        <v>0.03291013275446743</v>
+        <v>0.03482491729371474</v>
       </c>
       <c r="T18">
-        <v>0.03291013275446743</v>
+        <v>0.03482491729371474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H19">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N19">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O19">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P19">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q19">
-        <v>3744.589711947484</v>
+        <v>4189.086768406163</v>
       </c>
       <c r="R19">
-        <v>3744.589711947484</v>
+        <v>37701.78091565547</v>
       </c>
       <c r="S19">
-        <v>0.1577726305851792</v>
+        <v>0.1659889892814167</v>
       </c>
       <c r="T19">
-        <v>0.1577726305851792</v>
+        <v>0.1659889892814168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H20">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N20">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O20">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P20">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q20">
-        <v>3576.886006576126</v>
+        <v>4092.117418561723</v>
       </c>
       <c r="R20">
-        <v>3576.886006576126</v>
+        <v>36829.05676705551</v>
       </c>
       <c r="S20">
-        <v>0.1507066883082721</v>
+        <v>0.1621466615231691</v>
       </c>
       <c r="T20">
-        <v>0.1507066883082721</v>
+        <v>0.1621466615231691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H21">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N21">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O21">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P21">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q21">
-        <v>702.5150093473048</v>
+        <v>811.8344853267967</v>
       </c>
       <c r="R21">
-        <v>702.5150093473048</v>
+        <v>7306.51036794117</v>
       </c>
       <c r="S21">
-        <v>0.02959940863391725</v>
+        <v>0.03216824886500622</v>
       </c>
       <c r="T21">
-        <v>0.02959940863391725</v>
+        <v>0.03216824886500622</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H22">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N22">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O22">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P22">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q22">
-        <v>4.653453538724101</v>
+        <v>5.416143171323333</v>
       </c>
       <c r="R22">
-        <v>4.653453538724101</v>
+        <v>48.74528854191</v>
       </c>
       <c r="S22">
-        <v>0.0001960662349116418</v>
+        <v>0.00021461005238463</v>
       </c>
       <c r="T22">
-        <v>0.0001960662349116418</v>
+        <v>0.0002146100523846301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H23">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N23">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O23">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P23">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q23">
-        <v>12.34215893970674</v>
+        <v>13.90820522643033</v>
       </c>
       <c r="R23">
-        <v>12.34215893970674</v>
+        <v>125.173847037873</v>
       </c>
       <c r="S23">
-        <v>0.0005200182217039717</v>
+        <v>0.0005511007663209739</v>
       </c>
       <c r="T23">
-        <v>0.0005200182217039717</v>
+        <v>0.000551100766320974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H24">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N24">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O24">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P24">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q24">
-        <v>59.16885530501499</v>
+        <v>66.29187109858121</v>
       </c>
       <c r="R24">
-        <v>59.16885530501499</v>
+        <v>596.626839887231</v>
       </c>
       <c r="S24">
-        <v>0.002492990332265532</v>
+        <v>0.002626758835414164</v>
       </c>
       <c r="T24">
-        <v>0.002492990332265532</v>
+        <v>0.002626758835414164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H25">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N25">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O25">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P25">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q25">
-        <v>56.5189424866432</v>
+        <v>64.75734102179155</v>
       </c>
       <c r="R25">
-        <v>56.5189424866432</v>
+        <v>582.816069196124</v>
       </c>
       <c r="S25">
-        <v>0.002381340258869783</v>
+        <v>0.00256595439030472</v>
       </c>
       <c r="T25">
-        <v>0.002381340258869783</v>
+        <v>0.00256595439030472</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H26">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N26">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O26">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P26">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q26">
-        <v>11.10055096424804</v>
+        <v>12.84719797655167</v>
       </c>
       <c r="R26">
-        <v>11.10055096424804</v>
+        <v>115.624781788965</v>
       </c>
       <c r="S26">
-        <v>0.0004677049453472469</v>
+        <v>0.0005090592592421835</v>
       </c>
       <c r="T26">
-        <v>0.0004677049453472469</v>
+        <v>0.0005090592592421835</v>
       </c>
     </row>
   </sheetData>
